--- a/опт и Краснодар/2024/01,24/29,01,24 Сочи КИ/дв 29,01,24 счрсч ки от филиала.xlsx
+++ b/опт и Краснодар/2024/01,24/29,01,24 Сочи КИ/дв 29,01,24 счрсч ки от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\29,01,24 Сочи КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2024\01,24\29,01,24 Сочи КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903914BB-02FE-4A37-A6F4-6963F3B051C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CCCA90-880E-4B9E-9EEE-69999CB24EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>01,02,</t>
+  </si>
+  <si>
+    <t>29,01,</t>
   </si>
 </sst>
 </file>
@@ -918,7 +921,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
+      <selection pane="bottomLeft" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1173,9 @@
       <c r="N4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="20" t="s">
         <v>119</v>
